--- a/experiment/RUN_ME/stimuli/word_lists/practice_art_targets.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/practice_art_targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914978B4-B26B-46CB-8DF9-C7E0FA72F6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A435B1-AB4A-423E-97C3-F5D7B0EF1D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1095" windowWidth="18900" windowHeight="11055" xr2:uid="{F13046D0-A1CC-4D24-B380-656447C16282}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{F13046D0-A1CC-4D24-B380-656447C16282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="40">
   <si>
     <t>אגמים</t>
   </si>
@@ -47,9 +47,6 @@
     <t>שטרות</t>
   </si>
   <si>
-    <t>בריכה</t>
-  </si>
-  <si>
     <t>צינור</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>תולעת</t>
   </si>
   <si>
-    <t>אבוקה</t>
-  </si>
-  <si>
     <t>אגורה</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>פרעוש</t>
   </si>
   <si>
-    <t>נוצות</t>
-  </si>
-  <si>
-    <t>פרווה</t>
-  </si>
-  <si>
     <t>בהמות</t>
   </si>
   <si>
@@ -156,6 +144,18 @@
   </si>
   <si>
     <t>חיתול</t>
+  </si>
+  <si>
+    <t>מסגרת</t>
+  </si>
+  <si>
+    <t>מבחנה</t>
+  </si>
+  <si>
+    <t>אריות</t>
+  </si>
+  <si>
+    <t>תותים</t>
   </si>
 </sst>
 </file>
@@ -543,111 +543,105 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -716,6 +710,9 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -740,630 +737,660 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
